--- a/medicine/Sexualité et sexologie/A_Serbian_Film/A_Serbian_Film.xlsx
+++ b/medicine/Sexualité et sexologie/A_Serbian_Film/A_Serbian_Film.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">A Serbian Film (en serbe : Српски филм : Srpski film) est un film d'horreur serbe et le premier long métrage réalisé par Srdjan Spasojevic, mettant en vedette les acteurs serbes Srdjan Todorovic et Sergej Trifunovic, sorti en 2010.
-Ce film est devenu assez populaire au fil des années, en grande partie pour son statut de torture porn repoussant les limites de ce qui est moralement décent. Il est considéré par de nombreuses personnes comme l'un des films les plus horribles et traumatisants de tous les temps[1],[2].
-Au-delà des spectateurs, plusieurs gouvernements se sont opposés à la projection du long-métrage, estimant qu'il violait la législation ou faisait l'apologie de pratiques illégales. C'est notamment le cas de l'Espagne[3], de l'Australie[4], de la Nouvelle-Zélande[5], du Brésil[6] ou encore de la Norvège[7].  
+Ce film est devenu assez populaire au fil des années, en grande partie pour son statut de torture porn repoussant les limites de ce qui est moralement décent. Il est considéré par de nombreuses personnes comme l'un des films les plus horribles et traumatisants de tous les temps,.
+Au-delà des spectateurs, plusieurs gouvernements se sont opposés à la projection du long-métrage, estimant qu'il violait la législation ou faisait l'apologie de pratiques illégales. C'est notamment le cas de l'Espagne, de l'Australie, de la Nouvelle-Zélande, du Brésil ou encore de la Norvège.  
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Miloš, une ancienne star du cinéma X, tente de survivre péniblement avec sa famille dans la suspicion et le doute. Un jour, une ex-collègue lui présente Vukmir, un cinéaste aussi mystérieux que charismatique, qui lui propose un rôle qui le mettra à l'abri du besoin. Ignorant tout du film auquel il doit participer, Miloš accepte et scelle un pacte qui l’entraînera bien au-delà de l'enfer.
 </t>
@@ -544,7 +558,9 @@
           <t>Synopsis détaillé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Miloš est un ancien acteur X fauché depuis qu’il a prématurément mis un terme à sa carrière. Il était pourtant, selon son ex-collègue Lejla, plus qu’un simple acteur, un artiste. Lors d’un rendez-vous, elle lui apprend qu’une connaissance souhaiterait l’employer pour un projet pour lequel il se verrait récompensé d’une grosse somme d’argent. 
 Miloš a une femme, Marija, un fils, Petar, et un frère, Marko, policier corrompu attiré par Marija. Un jour, Petar visionne un film de son père et a sa première érection.
@@ -584,7 +600,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titre original : Српски филм (Srpski film)
 Réalisation : Srdjan Spasojevic
@@ -639,7 +657,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Srdjan Todorovic (VF : Julien Chatelet) : Miloš
 Sergej Trifunovic : Vukmir
@@ -686,14 +706,16 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Interdictions
-Ce film est l'un des plus controversés et obscurs de l'histoire du cinéma. Il a reçu beaucoup d'attention en raison de représentations réalistes de viols, nécrophilie et pédophilie puis de meurtres. Le ministère public serbe a ouvert une enquête pour savoir si le film violait la loi[8].
-En Espagne, la projection a été interdite par un tribunal de San Sebastián comme constituant une « menace pour la liberté sexuelle », interdisant sa présentation au Festival du film d'horreur et de fantastique à San Sebastián de 2010. Après que le film a été présenté en octobre 2010 au Festival international du film de Catalogne, le directeur du festival, Ángel Sala, a été accusé d'avoir présenté de la pédopornographie par un procureur espagnol, lequel a décidé de prendre des mesures en mai 2011 après avoir reçu une plainte d'une organisation catholique portant sur les scènes de viol d'un jeune enfant et d'un nouveau-né[9] ; les accusations ont été abandonnées par la suite[10].
-En Australie, l'avocat plaidant John Rau a déclaré : « C'est grotesque à plusieurs niveaux. Des violences sexuelles abusives, des représentations offensives d'interactions entre des enfants et des adultes et des comportements d'exploitation généralement d'une nature si inhabituelle que je ne peux pas imaginer comment une personne saine d'esprit peut penser que ce film peut être légalement autorisé en Australie-Méridionale[4]. »
-Le film a été interdit en Norvège après deux mois de ventes en raison de violation des articles 204a du droit pénal et 382 qui traitent de la représentation sexuelle des enfants et de la violence extrême[11].
-Réaction du réalisateur
-Face aux polémiques, le réalisateur a expliqué ses intentions.
-Né en 1976, il avait 15 ans quand les guerres de Yougoslavie ont éclaté. Profondément marqué par les horreurs de ces guerres, il décida de sortir ce film, qu'il expliquera en ces termes: "On nous a volé 15 ans de vie avec la guerre, les gens qui gouvernaient le pays nous ont volé ces années. Nous ne pouvions pas nous exprimer, nous ne pouvions rien faire. Nous étions culturellement morts, comme violés par l'autorité. Le film est la représentation de cette frustration et de toute cette colère enfouie en nous pendant toutes ces années. C'est un exutoire, une manière d'exorciser ces souffrances, cette exploitation dont nous avons été victimes". Dans des interviews ultérieures, le réalisateur a ajouté que le film était "trop soft" et que les gens dans la vraie vie étaient bien pires que ce qu'on pouvait voir dans son film[12].
+          <t>Interdictions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce film est l'un des plus controversés et obscurs de l'histoire du cinéma. Il a reçu beaucoup d'attention en raison de représentations réalistes de viols, nécrophilie et pédophilie puis de meurtres. Le ministère public serbe a ouvert une enquête pour savoir si le film violait la loi.
+En Espagne, la projection a été interdite par un tribunal de San Sebastián comme constituant une « menace pour la liberté sexuelle », interdisant sa présentation au Festival du film d'horreur et de fantastique à San Sebastián de 2010. Après que le film a été présenté en octobre 2010 au Festival international du film de Catalogne, le directeur du festival, Ángel Sala, a été accusé d'avoir présenté de la pédopornographie par un procureur espagnol, lequel a décidé de prendre des mesures en mai 2011 après avoir reçu une plainte d'une organisation catholique portant sur les scènes de viol d'un jeune enfant et d'un nouveau-né ; les accusations ont été abandonnées par la suite.
+En Australie, l'avocat plaidant John Rau a déclaré : « C'est grotesque à plusieurs niveaux. Des violences sexuelles abusives, des représentations offensives d'interactions entre des enfants et des adultes et des comportements d'exploitation généralement d'une nature si inhabituelle que je ne peux pas imaginer comment une personne saine d'esprit peut penser que ce film peut être légalement autorisé en Australie-Méridionale. »
+Le film a été interdit en Norvège après deux mois de ventes en raison de violation des articles 204a du droit pénal et 382 qui traitent de la représentation sexuelle des enfants et de la violence extrême.
 </t>
         </is>
       </c>
@@ -719,10 +741,50 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Controverses</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Réaction du réalisateur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Face aux polémiques, le réalisateur a expliqué ses intentions.
+Né en 1976, il avait 15 ans quand les guerres de Yougoslavie ont éclaté. Profondément marqué par les horreurs de ces guerres, il décida de sortir ce film, qu'il expliquera en ces termes: "On nous a volé 15 ans de vie avec la guerre, les gens qui gouvernaient le pays nous ont volé ces années. Nous ne pouvions pas nous exprimer, nous ne pouvions rien faire. Nous étions culturellement morts, comme violés par l'autorité. Le film est la représentation de cette frustration et de toute cette colère enfouie en nous pendant toutes ces années. C'est un exutoire, une manière d'exorciser ces souffrances, cette exploitation dont nous avons été victimes". Dans des interviews ultérieures, le réalisateur a ajouté que le film était "trop soft" et que les gens dans la vraie vie étaient bien pires que ce qu'on pouvait voir dans son film.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>A_Serbian_Film</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/A_Serbian_Film</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Fantasia Film Festival 2010 : meilleur premier film
 Nominations et sélections :
